--- a/BoM Scada Air.xlsx
+++ b/BoM Scada Air.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>NODE</t>
+  </si>
+  <si>
+    <t>modul charging</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/cncstorebandung/ups-module-18650-5v-3a-type-c-charge-discharging-highpower?extParam=whid%3D15512%26src%3Dchat</t>
+  </si>
+  <si>
+    <t>baterai</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/perfexstar/battery-baterai-sony-vtc5-18650-2600mah-30amax-original-authentic?extParam=ivf%3Dfalse&amp;src=topads</t>
   </si>
 </sst>
 </file>
@@ -202,12 +214,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -215,14 +229,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -504,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,16 +536,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -590,7 +607,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F16" si="0">C4*D4</f>
+        <f t="shared" ref="F4:F18" si="0">C4*D4</f>
         <v>6600</v>
       </c>
       <c r="G4" s="1"/>
@@ -848,6 +865,45 @@
       <c r="G16" s="1"/>
       <c r="H16" s="2" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>67000</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>67000</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>80000</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>160000</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -864,11 +920,13 @@
     <hyperlink ref="H9" r:id="rId7"/>
     <hyperlink ref="H10" r:id="rId8"/>
     <hyperlink ref="H11" r:id="rId9"/>
-    <hyperlink ref="H12"/>
+    <hyperlink ref="H12" display="https://www.tokopedia.com/arduinoid/pcf8575-remote-16-bits-i2c-smbus-i-o-expander-gpio-expansion-module?utm_campaign=PDP-28025336-11795598871-061223&amp;utm_source=salinlink&amp;utm_medium=share&amp;_branch_match_id=944048539765275900&amp;_branch_referrer=H4sIAAAAAAAAA8s"/>
     <hyperlink ref="H13" r:id="rId10"/>
     <hyperlink ref="H14" r:id="rId11"/>
     <hyperlink ref="H15" r:id="rId12"/>
     <hyperlink ref="H16" r:id="rId13"/>
+    <hyperlink ref="H17" r:id="rId14"/>
+    <hyperlink ref="H18" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BoM Scada Air.xlsx
+++ b/BoM Scada Air.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>https://www.tokopedia.com/perfexstar/battery-baterai-sony-vtc5-18650-2600mah-30amax-original-authentic?extParam=ivf%3Dfalse&amp;src=topads</t>
+  </si>
+  <si>
+    <t>dioda schotky SS4</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/yes-part/smd-dioda-ss24-2a-40v-diode-schottky-barrier-2-a-40-v-smd-do-214ac?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=pdp-seo</t>
   </si>
 </sst>
 </file>
@@ -236,10 +242,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -521,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,16 +542,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -607,7 +613,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F18" si="0">C4*D4</f>
+        <f t="shared" ref="F4:F19" si="0">C4*D4</f>
         <v>6600</v>
       </c>
       <c r="G4" s="1"/>
@@ -723,186 +729,207 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>65000</v>
+        <v>550</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>65000</v>
+        <v>5500</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>10000</v>
+        <v>65000</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>65000</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>9900</v>
+        <v>30000</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>9900</v>
+        <v>90000</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>599</v>
+        <v>9900</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>17970</v>
+        <v>9900</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
         <v>30</v>
       </c>
       <c r="D15" s="1">
-        <v>100</v>
+        <v>599</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>17970</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>67000</v>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1">
+        <v>300</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>67000</v>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>12000</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>67000</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>67000</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="4">
         <v>2</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D19" s="4">
         <v>80000</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F19" s="4">
         <f t="shared" si="0"/>
         <v>160000</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -918,15 +945,15 @@
     <hyperlink ref="H7" r:id="rId5"/>
     <hyperlink ref="H8" r:id="rId6"/>
     <hyperlink ref="H9" r:id="rId7"/>
-    <hyperlink ref="H10" r:id="rId8"/>
-    <hyperlink ref="H11" r:id="rId9"/>
-    <hyperlink ref="H12" display="https://www.tokopedia.com/arduinoid/pcf8575-remote-16-bits-i2c-smbus-i-o-expander-gpio-expansion-module?utm_campaign=PDP-28025336-11795598871-061223&amp;utm_source=salinlink&amp;utm_medium=share&amp;_branch_match_id=944048539765275900&amp;_branch_referrer=H4sIAAAAAAAAA8s"/>
-    <hyperlink ref="H13" r:id="rId10"/>
-    <hyperlink ref="H14" r:id="rId11"/>
-    <hyperlink ref="H15" r:id="rId12"/>
-    <hyperlink ref="H16" r:id="rId13"/>
-    <hyperlink ref="H17" r:id="rId14"/>
-    <hyperlink ref="H18" r:id="rId15"/>
+    <hyperlink ref="H11" r:id="rId8"/>
+    <hyperlink ref="H12" r:id="rId9"/>
+    <hyperlink ref="H13" display="https://www.tokopedia.com/arduinoid/pcf8575-remote-16-bits-i2c-smbus-i-o-expander-gpio-expansion-module?utm_campaign=PDP-28025336-11795598871-061223&amp;utm_source=salinlink&amp;utm_medium=share&amp;_branch_match_id=944048539765275900&amp;_branch_referrer=H4sIAAAAAAAAA8s"/>
+    <hyperlink ref="H14" r:id="rId10"/>
+    <hyperlink ref="H15" r:id="rId11"/>
+    <hyperlink ref="H16" r:id="rId12"/>
+    <hyperlink ref="H17" r:id="rId13"/>
+    <hyperlink ref="H18" r:id="rId14"/>
+    <hyperlink ref="H19" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BoM Scada Air.xlsx
+++ b/BoM Scada Air.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>No</t>
   </si>
@@ -153,6 +153,21 @@
   </si>
   <si>
     <t>https://www.tokopedia.com/yes-part/smd-dioda-ss24-2a-40v-diode-schottky-barrier-2-a-40-v-smd-do-214ac?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=pdp-seo</t>
+  </si>
+  <si>
+    <t>GATEWAY</t>
+  </si>
+  <si>
+    <t>mini W5500 ethernet</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/akhishop/mini-w5500-spi-to-lan-module</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/eltech-online/box-electronic-instrument-project-plastic-f1-2-cream-75x120x200-242mm?extParam=src%3Dshop%26whid%3D8614758</t>
   </si>
 </sst>
 </file>
@@ -235,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -245,6 +260,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -527,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="A21" sqref="A21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +631,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F19" si="0">C4*D4</f>
+        <f t="shared" ref="F4:F20" si="0">C4*D4</f>
         <v>6600</v>
       </c>
       <c r="G4" s="1"/>
@@ -933,9 +951,210 @@
         <v>40</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>147000</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>147000</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3900</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
+        <f>C23*D23</f>
+        <v>7800</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>85000</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
+        <f t="shared" ref="F24:F29" si="1">C24*D24</f>
+        <v>85000</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>900</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>2700</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9900</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>9900</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>65000</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>65000</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>80000</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A21:H21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1"/>
@@ -954,7 +1173,16 @@
     <hyperlink ref="H17" r:id="rId13"/>
     <hyperlink ref="H18" r:id="rId14"/>
     <hyperlink ref="H19" r:id="rId15"/>
+    <hyperlink ref="H23" r:id="rId16"/>
+    <hyperlink ref="H24" r:id="rId17"/>
+    <hyperlink ref="H25" r:id="rId18"/>
+    <hyperlink ref="H26" r:id="rId19"/>
+    <hyperlink ref="H27" r:id="rId20"/>
+    <hyperlink ref="H28" r:id="rId21"/>
+    <hyperlink ref="H29" r:id="rId22"/>
+    <hyperlink ref="H20" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId24"/>
 </worksheet>
 </file>